--- a/documentation/Sprint Backlog  Burndown.xlsx
+++ b/documentation/Sprint Backlog  Burndown.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Related User Story</t>
   </si>
@@ -46,37 +46,46 @@
     <t xml:space="preserve">Week 4</t>
   </si>
   <si>
-    <t xml:space="preserve">That User Story</t>
+    <t xml:space="preserve">Refactor to Support Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick up/Drop Item from location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use item from inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Items to World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactor to Support NPC</t>
   </si>
   <si>
     <t xml:space="preserve">Implement NPC</t>
   </si>
   <si>
-    <t xml:space="preserve">Refactor to Support NPC</t>
+    <t xml:space="preserve">Load NPC</t>
   </si>
   <si>
     <t xml:space="preserve">Add NPC to World</t>
   </si>
   <si>
-    <t xml:space="preserve">Load NPC</t>
-  </si>
-  <si>
     <t xml:space="preserve">NPC movement</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactor to Support Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Items to World</t>
+    <t xml:space="preserve">Interact with NPC</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Item/NPC interaction</t>
   </si>
   <si>
-    <t xml:space="preserve">Load Items</t>
+    <t xml:space="preserve">The system to be able to generate new maps</t>
   </si>
   <si>
     <t xml:space="preserve">Dynamic Map Generation</t>
@@ -209,36 +218,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -447,17 +460,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="3877623"/>
-        <c:axId val="38350217"/>
+        <c:axId val="74412363"/>
+        <c:axId val="49232070"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3877623"/>
+        <c:axId val="74412363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -484,7 +497,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38350217"/>
+        <c:crossAx val="49232070"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -492,7 +505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38350217"/>
+        <c:axId val="49232070"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,7 +545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3877623"/>
+        <c:crossAx val="74412363"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -571,9 +584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -581,8 +594,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6819480" y="385560"/>
-        <a:ext cx="4510440" cy="2743200"/>
+        <a:off x="9401400" y="385560"/>
+        <a:ext cx="4510080" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -775,333 +788,339 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M27" activeCellId="0" sqref="M27"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="7" t="n">
+      <c r="B27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="8" t="n">
         <f aca="false">SUM(C3:C26)</f>
         <v>39</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="8" t="n">
         <f aca="false">SUM(D3:D26)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="8" t="n">
         <f aca="false">SUM(E3:E26)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="7" t="n">
+      <c r="F27" s="8" t="n">
         <f aca="false">SUM(F3:F26)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="7" t="n">
+      <c r="G27" s="8" t="n">
         <f aca="false">SUM(G3:G26)</f>
         <v>0</v>
       </c>

--- a/documentation/Sprint Backlog  Burndown.xlsx
+++ b/documentation/Sprint Backlog  Burndown.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Related User Story</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Add NPC to World</t>
   </si>
   <si>
-    <t xml:space="preserve">NPC movement</t>
+    <t xml:space="preserve">NPC movement (Did not implement)</t>
   </si>
   <si>
     <t xml:space="preserve">Interact with NPC</t>
@@ -88,7 +88,16 @@
     <t xml:space="preserve">The system to be able to generate new maps</t>
   </si>
   <si>
-    <t xml:space="preserve">Dynamic Map Generation</t>
+    <t xml:space="preserve">Implement WorldManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement WorldGenerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuffle Rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect Rooms</t>
   </si>
   <si>
     <t xml:space="preserve">Estimate Totals</t>
@@ -102,7 +111,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +141,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -218,7 +233,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,6 +267,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,17 +358,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                <a:uFillTx/>
-                <a:latin typeface="Arial"/>
+              <a:defRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="en-US" sz="1400" strike="noStrike" u="none">
+              <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>Burndown Chart</a:t>
@@ -393,11 +413,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
@@ -411,15 +430,6 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="28440">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -433,10 +443,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>39.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -460,11 +470,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="74412363"/>
-        <c:axId val="49232070"/>
+        <c:axId val="33537795"/>
+        <c:axId val="54510621"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74412363"/>
+        <c:axId val="33537795"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,17 +497,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49232070"/>
+        <c:crossAx val="54510621"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -505,7 +514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49232070"/>
+        <c:axId val="54510621"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,17 +544,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74412363"/>
+        <c:crossAx val="33537795"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -584,9 +592,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>18360</xdr:colOff>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -594,8 +602,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9401400" y="385560"/>
-        <a:ext cx="4510080" cy="2742840"/>
+        <a:off x="9400680" y="385560"/>
+        <a:ext cx="4509720" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -785,10 +793,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -840,7 +848,9 @@
       <c r="C3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -855,7 +865,9 @@
       <c r="C4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -868,7 +880,9 @@
       <c r="C5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -883,7 +897,9 @@
       <c r="C6" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -896,7 +912,9 @@
       <c r="C7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -909,7 +927,9 @@
       <c r="C8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -922,7 +942,9 @@
       <c r="C9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -935,7 +957,9 @@
       <c r="C10" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -948,7 +972,9 @@
       <c r="C11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -963,7 +989,9 @@
       <c r="C12" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -983,28 +1011,40 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.1</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0.1</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1102,15 +1142,15 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C27" s="8" t="n">
         <f aca="false">SUM(C3:C26)</f>
-        <v>39</v>
+        <v>39.7</v>
       </c>
       <c r="D27" s="8" t="n">
         <f aca="false">SUM(D3:D26)</f>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="E27" s="8" t="n">
         <f aca="false">SUM(E3:E26)</f>
@@ -1124,6 +1164,9 @@
         <f aca="false">SUM(G3:G26)</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
